--- a/biology/Zoologie/Gephyromantis_boulengeri/Gephyromantis_boulengeri.xlsx
+++ b/biology/Zoologie/Gephyromantis_boulengeri/Gephyromantis_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis boulengeri est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis boulengeri est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 1 200 m d'altitude dans l'est du pays depuis Maroantsetra jusqu'à Ambila ainsi que les îles de Nosy Mangabe et de Sainte-Marie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 1 200 m d'altitude dans l'est du pays depuis Maroantsetra jusqu'à Ambila ainsi que les îles de Nosy Mangabe et de Sainte-Marie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mantidactylus boulengeri mesure de 25 à 30 mm. Son dos est brun plus ou moins foncé, parfois avec une ligne longitudinale jaune plus ou moins large. Les mâles ont deux sacs vocaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mantidactylus boulengeri mesure de 25 à 30 mm. Son dos est brun plus ou moins foncé, parfois avec une ligne longitudinale jaune plus ou moins large. Les mâles ont deux sacs vocaux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, boulengeri, lui a été donné en référence à George Boulenger, zoologiste britannique d'origine belge[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, boulengeri, lui a été donné en référence à George Boulenger, zoologiste britannique d'origine belge.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Methuen, 1920 "1919" : Descriptions of a new snake from the Transvaal, together with a new diagnosis and key to the genus Xenocalamus, and of some Batrachia from Madagascar. Proceedings of the Zoological Society of London, vol. 1919, p. 349-355 (texte intégral).</t>
         </is>
